--- a/downloaded_files/PBWS402_Lecture-35095.xlsx
+++ b/downloaded_files/PBWS402_Lecture-35095.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Wael Ali Kotb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1125371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد حامد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Hamed Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1190090</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1542,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4867886574</x:v>
+        <x:v>45906.4147381134</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4147381134</x:v>
+        <x:v>45915.9545695255</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9545695255</x:v>
+        <x:v>45907.4350110301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4350110301</x:v>
+        <x:v>45909.4691251505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4691251505</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45906.414850544</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.414850544</x:v>
+        <x:v>45906.7509565972</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.7509565972</x:v>
+        <x:v>45906.8989041667</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.8989041667</x:v>
+        <x:v>45906.4582602662</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4582602662</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45906.4143582176</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4143582176</x:v>
+        <x:v>45906.4150481481</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4150481481</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45906.7572393171</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.7572393171</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
